--- a/SPC_dimension/SPC_dataset_2017.xlsx
+++ b/SPC_dimension/SPC_dataset_2017.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="849"/>
+    <workbookView xWindow="1200" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="849" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MO4000336" sheetId="38" r:id="rId1"/>
+    <sheet name="MO4000467" sheetId="39" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -31,21 +40,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -71,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -82,15 +92,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -106,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,23 +198,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,23 +233,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,17 +411,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>42738.354166666664</v>
       </c>
@@ -470,7 +453,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42738.354166666664</v>
       </c>
@@ -491,7 +474,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>42738.354166666664</v>
       </c>
@@ -512,7 +495,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>42738.354166666664</v>
       </c>
@@ -533,7 +516,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>42738.354166666664</v>
       </c>
@@ -554,7 +537,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>42738.375</v>
       </c>
@@ -575,7 +558,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>42738.375</v>
       </c>
@@ -596,7 +579,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>42738.375</v>
       </c>
@@ -617,7 +600,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>42738.375</v>
       </c>
@@ -638,7 +621,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>42738.375</v>
       </c>
@@ -659,7 +642,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>42738.395833333336</v>
       </c>
@@ -683,7 +666,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>42738.395833333336</v>
       </c>
@@ -707,7 +690,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>42738.395833333336</v>
       </c>
@@ -731,7 +714,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>42738.395833333336</v>
       </c>
@@ -755,7 +738,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>42738.395833333336</v>
       </c>
@@ -779,7 +762,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>42738.416666666664</v>
       </c>
@@ -803,7 +786,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>42738.416666666664</v>
       </c>
@@ -827,7 +810,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>42738.416666666664</v>
       </c>
@@ -851,7 +834,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>42738.416666666664</v>
       </c>
@@ -875,7 +858,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42738.416666666664</v>
       </c>
@@ -899,7 +882,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>42738.4375</v>
       </c>
@@ -923,7 +906,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>42738.4375</v>
       </c>
@@ -947,7 +930,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>42738.4375</v>
       </c>
@@ -971,7 +954,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>42738.4375</v>
       </c>
@@ -995,7 +978,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>42738.4375</v>
       </c>
@@ -1019,7 +1002,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42738.458333333336</v>
       </c>
@@ -1030,7 +1013,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>42738.458333333336</v>
       </c>
@@ -1041,7 +1024,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>42738.458333333336</v>
       </c>
@@ -1052,7 +1035,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>42738.458333333336</v>
       </c>
@@ -1063,7 +1046,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>42738.458333333336</v>
       </c>
@@ -1074,7 +1057,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>42738.479166666664</v>
       </c>
@@ -1085,7 +1068,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>42738.479166666664</v>
       </c>
@@ -1096,7 +1079,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>42738.479166666664</v>
       </c>
@@ -1107,7 +1090,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>42738.479166666664</v>
       </c>
@@ -1118,7 +1101,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>42738.479166666664</v>
       </c>
@@ -1129,7 +1112,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>42738.555555555555</v>
       </c>
@@ -1140,7 +1123,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>42738.555555555555</v>
       </c>
@@ -1151,7 +1134,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>42738.555555555555</v>
       </c>
@@ -1162,7 +1145,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>42738.555555555555</v>
       </c>
@@ -1173,7 +1156,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>42738.555555555555</v>
       </c>
@@ -1184,7 +1167,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>42738.583333333336</v>
       </c>
@@ -1195,7 +1178,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42738.583333333336</v>
       </c>
@@ -1206,7 +1189,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>42738.583333333336</v>
       </c>
@@ -1217,7 +1200,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42738.583333333336</v>
       </c>
@@ -1228,7 +1211,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>42738.583333333336</v>
       </c>
@@ -1239,7 +1222,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>42738.604166666664</v>
       </c>
@@ -1250,7 +1233,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>42738.604166666664</v>
       </c>
@@ -1261,7 +1244,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>42738.604166666664</v>
       </c>
@@ -1272,7 +1255,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>42738.604166666664</v>
       </c>
@@ -1283,7 +1266,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>42738.604166666664</v>
       </c>
@@ -1294,7 +1277,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>42738.625</v>
       </c>
@@ -1305,7 +1288,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>42738.625</v>
       </c>
@@ -1316,7 +1299,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>42738.625</v>
       </c>
@@ -1327,7 +1310,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>42738.625</v>
       </c>
@@ -1338,7 +1321,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>42738.625</v>
       </c>
@@ -1349,7 +1332,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>42738.645833333336</v>
       </c>
@@ -1360,7 +1343,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>42738.645833333336</v>
       </c>
@@ -1371,7 +1354,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>42738.645833333336</v>
       </c>
@@ -1382,7 +1365,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>42738.645833333336</v>
       </c>
@@ -1393,7 +1376,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>42738.645833333336</v>
       </c>
@@ -1404,7 +1387,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>42738.666666666664</v>
       </c>
@@ -1415,7 +1398,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42738.666666666664</v>
       </c>
@@ -1426,7 +1409,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>42738.666666666664</v>
       </c>
@@ -1437,7 +1420,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>42738.666666666664</v>
       </c>
@@ -1448,7 +1431,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>42738.666666666664</v>
       </c>
@@ -1459,7 +1442,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>42738.6875</v>
       </c>
@@ -1470,7 +1453,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>42738.6875</v>
       </c>
@@ -1481,7 +1464,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42738.6875</v>
       </c>
@@ -1492,7 +1475,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42738.6875</v>
       </c>
@@ -1503,7 +1486,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>42738.6875</v>
       </c>
@@ -1514,7 +1497,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>42738.708333333336</v>
       </c>
@@ -1525,7 +1508,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>42738.708333333336</v>
       </c>
@@ -1536,7 +1519,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>42738.708333333336</v>
       </c>
@@ -1547,7 +1530,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42738.708333333336</v>
       </c>
@@ -1558,7 +1541,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42738.708333333336</v>
       </c>
@@ -1569,7 +1552,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42738.75</v>
       </c>
@@ -1580,7 +1563,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>42738.75</v>
       </c>
@@ -1591,7 +1574,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>42738.75</v>
       </c>
@@ -1602,7 +1585,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>42738.75</v>
       </c>
@@ -1613,7 +1596,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42738.75</v>
       </c>
@@ -1624,7 +1607,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>42738.770833333336</v>
       </c>
@@ -1635,7 +1618,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42738.770833333336</v>
       </c>
@@ -1646,7 +1629,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42738.770833333336</v>
       </c>
@@ -1657,7 +1640,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>42738.770833333336</v>
       </c>
@@ -1668,7 +1651,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>42738.770833333336</v>
       </c>
@@ -1679,7 +1662,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42738.791666666664</v>
       </c>
@@ -1690,7 +1673,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>42738.791666666664</v>
       </c>
@@ -1701,7 +1684,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>42738.791666666664</v>
       </c>
@@ -1712,7 +1695,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42738.791666666664</v>
       </c>
@@ -1723,7 +1706,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>42738.791666666664</v>
       </c>
@@ -1734,7 +1717,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>42738.8125</v>
       </c>
@@ -1745,7 +1728,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42738.8125</v>
       </c>
@@ -1756,7 +1739,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>42738.8125</v>
       </c>
@@ -1767,7 +1750,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>42738.8125</v>
       </c>
@@ -1778,7 +1761,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>42738.8125</v>
       </c>
@@ -1789,7 +1772,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>42738.833333333336</v>
       </c>
@@ -1800,7 +1783,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>42738.833333333336</v>
       </c>
@@ -1811,7 +1794,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42738.833333333336</v>
       </c>
@@ -1822,7 +1805,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>42738.833333333336</v>
       </c>
@@ -1833,7 +1816,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>42738.833333333336</v>
       </c>
@@ -1844,7 +1827,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>42738.854166666664</v>
       </c>
@@ -1855,7 +1838,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>42738.854166666664</v>
       </c>
@@ -1866,7 +1849,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>42738.854166666664</v>
       </c>
@@ -1877,7 +1860,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42738.854166666664</v>
       </c>
@@ -1888,7 +1871,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>42738.854166666664</v>
       </c>
@@ -1899,7 +1882,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>42739.354166666664</v>
       </c>
@@ -1910,7 +1893,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>42739.354166666664</v>
       </c>
@@ -1921,7 +1904,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>42739.354166666664</v>
       </c>
@@ -1932,7 +1915,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>42739.354166666664</v>
       </c>
@@ -1943,7 +1926,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42739.354166666664</v>
       </c>
@@ -1954,7 +1937,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>42739.375</v>
       </c>
@@ -1965,7 +1948,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>42739.375</v>
       </c>
@@ -1976,7 +1959,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>42739.375</v>
       </c>
@@ -1987,7 +1970,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>42739.375</v>
       </c>
@@ -1998,7 +1981,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>42739.375</v>
       </c>
@@ -2009,7 +1992,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>42739.395833333336</v>
       </c>
@@ -2020,7 +2003,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>42739.395833333336</v>
       </c>
@@ -2031,7 +2014,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>42739.395833333336</v>
       </c>
@@ -2042,7 +2025,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>42739.395833333336</v>
       </c>
@@ -2053,7 +2036,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>42739.395833333336</v>
       </c>
@@ -2064,7 +2047,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>42739.416666666664</v>
       </c>
@@ -2075,7 +2058,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>42739.416666666664</v>
       </c>
@@ -2086,7 +2069,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>42739.416666666664</v>
       </c>
@@ -2097,7 +2080,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>42739.416666666664</v>
       </c>
@@ -2108,7 +2091,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>42739.416666666664</v>
       </c>
@@ -2119,7 +2102,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>42739.4375</v>
       </c>
@@ -2130,7 +2113,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>42739.4375</v>
       </c>
@@ -2141,7 +2124,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>42739.4375</v>
       </c>
@@ -2152,7 +2135,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>42739.4375</v>
       </c>
@@ -2163,7 +2146,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>42739.4375</v>
       </c>
@@ -2174,7 +2157,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>42739.458333333336</v>
       </c>
@@ -2185,7 +2168,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>42739.458333333336</v>
       </c>
@@ -2196,7 +2179,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>42739.458333333336</v>
       </c>
@@ -2207,7 +2190,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>42739.458333333336</v>
       </c>
@@ -2218,7 +2201,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>42739.458333333336</v>
       </c>
@@ -2229,7 +2212,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>42739.479166666664</v>
       </c>
@@ -2240,7 +2223,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>42739.479166666664</v>
       </c>
@@ -2251,7 +2234,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>42739.479166666664</v>
       </c>
@@ -2262,7 +2245,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>42739.479166666664</v>
       </c>
@@ -2273,7 +2256,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>42739.479166666664</v>
       </c>
@@ -2284,7 +2267,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>42739.555555555555</v>
       </c>
@@ -2295,7 +2278,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>42739.555555555555</v>
       </c>
@@ -2306,7 +2289,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>42739.555555555555</v>
       </c>
@@ -2317,7 +2300,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>42739.555555555555</v>
       </c>
@@ -2328,7 +2311,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>42739.555555555555</v>
       </c>
@@ -2339,7 +2322,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>42739.583333333336</v>
       </c>
@@ -2350,7 +2333,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>42739.583333333336</v>
       </c>
@@ -2361,7 +2344,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>42739.583333333336</v>
       </c>
@@ -2372,7 +2355,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>42739.583333333336</v>
       </c>
@@ -2383,7 +2366,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>42739.583333333336</v>
       </c>
@@ -2394,7 +2377,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>42739.604166666664</v>
       </c>
@@ -2405,7 +2388,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>42739.604166666664</v>
       </c>
@@ -2416,7 +2399,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>42739.604166666664</v>
       </c>
@@ -2427,7 +2410,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>42739.604166666664</v>
       </c>
@@ -2438,7 +2421,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>42739.604166666664</v>
       </c>
@@ -2449,7 +2432,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>42739.625</v>
       </c>
@@ -2460,7 +2443,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>42739.625</v>
       </c>
@@ -2471,7 +2454,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>42739.625</v>
       </c>
@@ -2482,7 +2465,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>42739.625</v>
       </c>
@@ -2493,7 +2476,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>42739.625</v>
       </c>
@@ -2504,610 +2487,1914 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="5"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="5"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="5"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="5"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="5"/>
       <c r="B203" s="3"/>
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="5"/>
       <c r="B204" s="3"/>
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="5"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="5"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="5"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="5"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="5"/>
       <c r="B209" s="4"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="5"/>
       <c r="B210" s="3"/>
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="5"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="5"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="5"/>
       <c r="B213" s="4"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="5"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="5"/>
       <c r="B215" s="3"/>
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="5"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="5"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="5"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="5"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="5"/>
       <c r="B220" s="3"/>
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="5"/>
       <c r="B221" s="3"/>
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="5"/>
       <c r="B222" s="3"/>
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="5"/>
       <c r="B223" s="3"/>
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="5"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="5"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="5"/>
       <c r="B226" s="4"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="5"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="5"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="5"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="5"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="5"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="5"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="5"/>
       <c r="B233" s="3"/>
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="5"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="5"/>
       <c r="B235" s="4"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="5"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="5"/>
       <c r="B237" s="4"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="5"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="5"/>
       <c r="B239" s="3"/>
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="5"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="5"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="5"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="5"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="5"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="5"/>
       <c r="B245" s="3"/>
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="5"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="5"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="5"/>
       <c r="B248" s="4"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="5"/>
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="5"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="5"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="5"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="5"/>
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="5"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="5"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="5"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="5"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="5"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="5"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="5"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="5"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="5"/>
       <c r="B262" s="3"/>
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="5"/>
       <c r="B263" s="4"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="5"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="5"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="5"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="5"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="5"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="5"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="5"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="5"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="5"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="5"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="5"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="5"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="5"/>
       <c r="B276" s="3"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="5"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="5"/>
       <c r="B278" s="3"/>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="5"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="5"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="5"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="5"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>42748.5625</v>
+      </c>
+      <c r="B2" s="7">
+        <v>21.93</v>
+      </c>
+      <c r="C2" s="8">
+        <v>21.35</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>42748.5625</v>
+      </c>
+      <c r="B3" s="7">
+        <v>21.94</v>
+      </c>
+      <c r="C3" s="8">
+        <v>21.41</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>42748.5625</v>
+      </c>
+      <c r="B4" s="7">
+        <v>21.95</v>
+      </c>
+      <c r="C4" s="8">
+        <v>21.42</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>42748.5625</v>
+      </c>
+      <c r="B5" s="7">
+        <v>21.94</v>
+      </c>
+      <c r="C5" s="8">
+        <v>21.36</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>42748.5625</v>
+      </c>
+      <c r="B6" s="7">
+        <v>21.91</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21.38</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>42748.583333333336</v>
+      </c>
+      <c r="B7" s="7">
+        <v>21.93</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21.34</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>42748.583333333336</v>
+      </c>
+      <c r="B8" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21.47</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>42748.583333333336</v>
+      </c>
+      <c r="B9" s="7">
+        <v>21.92</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21.42</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>42748.583333333336</v>
+      </c>
+      <c r="B10" s="7">
+        <v>21.98</v>
+      </c>
+      <c r="C10" s="8">
+        <v>21.46</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>42748.583333333336</v>
+      </c>
+      <c r="B11" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>21.37</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>42748.604166666664</v>
+      </c>
+      <c r="B12" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21.32</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>42748.604166666664</v>
+      </c>
+      <c r="B13" s="7">
+        <v>21.88</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21.36</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>42748.604166666664</v>
+      </c>
+      <c r="B14" s="7">
+        <v>21.97</v>
+      </c>
+      <c r="C14" s="8">
+        <v>21.32</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>42748.604166666664</v>
+      </c>
+      <c r="B15" s="7">
+        <v>21.84</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21.36</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>42748.604166666664</v>
+      </c>
+      <c r="B16" s="7">
+        <v>21.88</v>
+      </c>
+      <c r="C16" s="8">
+        <v>21.38</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>42748.625</v>
+      </c>
+      <c r="B17" s="7">
+        <v>21.98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>21.44</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>42748.625</v>
+      </c>
+      <c r="B18" s="7">
+        <v>21.88</v>
+      </c>
+      <c r="C18" s="8">
+        <v>21.37</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>42748.625</v>
+      </c>
+      <c r="B19" s="7">
+        <v>21.93</v>
+      </c>
+      <c r="C19" s="8">
+        <v>21.42</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>42748.625</v>
+      </c>
+      <c r="B20" s="7">
+        <v>21.92</v>
+      </c>
+      <c r="C20" s="8">
+        <v>21.44</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>42748.625</v>
+      </c>
+      <c r="B21" s="7">
+        <v>21.84</v>
+      </c>
+      <c r="C21" s="8">
+        <v>21.38</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>42748.645833333336</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21.87</v>
+      </c>
+      <c r="C22" s="8">
+        <v>21.35</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>42748.645833333336</v>
+      </c>
+      <c r="B23" s="7">
+        <v>21.91</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21.41</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>42748.645833333336</v>
+      </c>
+      <c r="B24" s="7">
+        <v>21.81</v>
+      </c>
+      <c r="C24" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>42748.645833333336</v>
+      </c>
+      <c r="B25" s="7">
+        <v>21.94</v>
+      </c>
+      <c r="C25" s="8">
+        <v>21.39</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>42748.645833333336</v>
+      </c>
+      <c r="B26" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="C26" s="8">
+        <v>21.36</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>42748.666666666664</v>
+      </c>
+      <c r="B27" s="7">
+        <v>21.86</v>
+      </c>
+      <c r="C27" s="8">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>42748.666666666664</v>
+      </c>
+      <c r="B28" s="7">
+        <v>21.92</v>
+      </c>
+      <c r="C28" s="8">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>42748.666666666664</v>
+      </c>
+      <c r="B29" s="7">
+        <v>21.85</v>
+      </c>
+      <c r="C29" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>42748.666666666664</v>
+      </c>
+      <c r="B30" s="7">
+        <v>21.91</v>
+      </c>
+      <c r="C30" s="8">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>42748.666666666664</v>
+      </c>
+      <c r="B31" s="7">
+        <v>21.89</v>
+      </c>
+      <c r="C31" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>42748.6875</v>
+      </c>
+      <c r="B32" s="7">
+        <v>21.88</v>
+      </c>
+      <c r="C32" s="8">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>42748.6875</v>
+      </c>
+      <c r="B33" s="7">
+        <v>21.96</v>
+      </c>
+      <c r="C33" s="8">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>42748.6875</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21.89</v>
+      </c>
+      <c r="C34" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>42748.6875</v>
+      </c>
+      <c r="B35" s="7">
+        <v>21.98</v>
+      </c>
+      <c r="C35" s="8">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>42748.6875</v>
+      </c>
+      <c r="B36" s="7">
+        <v>21.92</v>
+      </c>
+      <c r="C36" s="8">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>42749.375</v>
+      </c>
+      <c r="B37" s="8">
+        <v>21.91</v>
+      </c>
+      <c r="C37" s="8">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>42749.375</v>
+      </c>
+      <c r="B38" s="8">
+        <v>21.85</v>
+      </c>
+      <c r="C38" s="8">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>42749.375</v>
+      </c>
+      <c r="B39" s="8">
+        <v>21.92</v>
+      </c>
+      <c r="C39" s="8">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>42749.375</v>
+      </c>
+      <c r="B40" s="8">
+        <v>21.88</v>
+      </c>
+      <c r="C40" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>42749.375</v>
+      </c>
+      <c r="B41" s="8">
+        <v>21.87</v>
+      </c>
+      <c r="C41" s="8">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>42749.395833333336</v>
+      </c>
+      <c r="B42" s="8">
+        <v>21.95</v>
+      </c>
+      <c r="C42" s="8">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>42749.395833333336</v>
+      </c>
+      <c r="B43" s="8">
+        <v>21.84</v>
+      </c>
+      <c r="C43" s="8">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>42749.395833333336</v>
+      </c>
+      <c r="B44" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="C44" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>42749.395833333336</v>
+      </c>
+      <c r="B45" s="8">
+        <v>21.95</v>
+      </c>
+      <c r="C45" s="8">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>42749.395833333336</v>
+      </c>
+      <c r="B46" s="8">
+        <v>21.93</v>
+      </c>
+      <c r="C46" s="8">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <v>42749.416666666664</v>
+      </c>
+      <c r="B47" s="8">
+        <v>21.81</v>
+      </c>
+      <c r="C47" s="8">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <v>42749.416666666664</v>
+      </c>
+      <c r="B48" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="C48" s="8">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <v>42749.416666666664</v>
+      </c>
+      <c r="B49" s="8">
+        <v>21.91</v>
+      </c>
+      <c r="C49" s="8">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <v>42749.416666666664</v>
+      </c>
+      <c r="B50" s="8">
+        <v>21.92</v>
+      </c>
+      <c r="C50" s="8">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <v>42749.416666666664</v>
+      </c>
+      <c r="B51" s="8">
+        <v>21.97</v>
+      </c>
+      <c r="C51" s="8">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <v>42749.4375</v>
+      </c>
+      <c r="B52" s="8">
+        <v>21.8</v>
+      </c>
+      <c r="C52" s="8">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <v>42749.4375</v>
+      </c>
+      <c r="B53" s="8">
+        <v>21.92</v>
+      </c>
+      <c r="C53" s="8">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <v>42749.4375</v>
+      </c>
+      <c r="B54" s="8">
+        <v>21.98</v>
+      </c>
+      <c r="C54" s="8">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <v>42749.4375</v>
+      </c>
+      <c r="B55" s="8">
+        <v>21.97</v>
+      </c>
+      <c r="C55" s="8">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <v>42749.4375</v>
+      </c>
+      <c r="B56" s="8">
+        <v>21.92</v>
+      </c>
+      <c r="C56" s="8">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <v>42749.458333333336</v>
+      </c>
+      <c r="B57" s="8">
+        <v>21.8</v>
+      </c>
+      <c r="C57" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <v>42749.458333333336</v>
+      </c>
+      <c r="B58" s="8">
+        <v>21.97</v>
+      </c>
+      <c r="C58" s="8">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <v>42749.458333333336</v>
+      </c>
+      <c r="B59" s="8">
+        <v>21.86</v>
+      </c>
+      <c r="C59" s="8">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <v>42749.458333333336</v>
+      </c>
+      <c r="B60" s="8">
+        <v>21.92</v>
+      </c>
+      <c r="C60" s="8">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <v>42749.458333333336</v>
+      </c>
+      <c r="B61" s="8">
+        <v>21.85</v>
+      </c>
+      <c r="C61" s="8">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
